--- a/public/static/excel/template/批量现金充值模板.xlsx
+++ b/public/static/excel/template/批量现金充值模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16920"/>
+    <workbookView windowHeight="17100"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8">
+  <si>
+    <t>姓名</t>
+  </si>
   <si>
     <t>手机号</t>
   </si>
@@ -26,6 +29,9 @@
   </si>
   <si>
     <t>备注</t>
+  </si>
+  <si>
+    <t>张三</t>
   </si>
   <si>
     <t>18956225230123</t>
@@ -41,8 +47,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -60,15 +66,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -82,8 +96,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -91,23 +106,45 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -116,6 +153,14 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -129,48 +174,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -178,20 +198,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,61 +212,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -272,121 +362,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,6 +415,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -420,15 +435,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,145 +508,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -973,19 +979,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="3" max="3" width="20.6785714285714" customWidth="1"/>
-    <col min="4" max="4" width="17.5535714285714" customWidth="1"/>
+    <col min="4" max="4" width="20.6785714285714" customWidth="1"/>
+    <col min="5" max="5" width="17.5535714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -998,16 +1004,22 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="C2">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2">
         <v>100</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
+      <c r="E2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/public/static/excel/template/批量现金充值模板.xlsx
+++ b/public/static/excel/template/批量现金充值模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17100"/>
+    <workbookView windowHeight="16920"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
     <t>张三</t>
   </si>
   <si>
-    <t>18956225230123</t>
+    <t>18956225230</t>
   </si>
   <si>
     <t>测试</t>
@@ -66,6 +66,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -74,93 +118,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -174,30 +142,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,6 +212,78 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -224,127 +296,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -368,31 +392,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,17 +424,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -495,11 +489,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -508,145 +508,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -982,11 +982,12 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
+    <col min="2" max="3" width="33.625" customWidth="1"/>
     <col min="4" max="4" width="20.6785714285714" customWidth="1"/>
     <col min="5" max="5" width="17.5535714285714" customWidth="1"/>
   </cols>
@@ -1015,6 +1016,9 @@
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C2">
+        <v>123</v>
+      </c>
       <c r="D2">
         <v>100</v>
       </c>

--- a/public/static/excel/template/批量现金充值模板.xlsx
+++ b/public/static/excel/template/批量现金充值模板.xlsx
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10">
   <si>
     <t>姓名</t>
   </si>
   <si>
     <t>手机号</t>
+  </si>
+  <si>
+    <t>账户名称</t>
   </si>
   <si>
     <t>卡号</t>
@@ -37,6 +40,9 @@
     <t>18956225230</t>
   </si>
   <si>
+    <t>个人账户</t>
+  </si>
+  <si>
     <t>测试</t>
   </si>
 </sst>
@@ -45,10 +51,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -61,6 +67,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -81,6 +94,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -88,23 +133,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -118,11 +148,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -135,69 +202,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,187 +218,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,21 +440,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -458,21 +449,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -503,150 +479,180 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -979,20 +985,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="1" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="3" width="33.625" customWidth="1"/>
-    <col min="4" max="4" width="20.6785714285714" customWidth="1"/>
-    <col min="5" max="5" width="17.5535714285714" customWidth="1"/>
+    <col min="2" max="4" width="33.625" customWidth="1"/>
+    <col min="5" max="5" width="20.6785714285714" customWidth="1"/>
+    <col min="6" max="6" width="17.5535714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1008,22 +1014,28 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2">
         <v>123</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>100</v>
       </c>
-      <c r="E2" t="s">
-        <v>7</v>
+      <c r="F2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/public/static/excel/template/批量现金充值模板.xlsx
+++ b/public/static/excel/template/批量现金充值模板.xlsx
@@ -14,18 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7">
   <si>
     <t>姓名</t>
   </si>
   <si>
     <t>手机号</t>
-  </si>
-  <si>
-    <t>账户名称</t>
-  </si>
-  <si>
-    <t>卡号</t>
   </si>
   <si>
     <t>充值金额（元）</t>
@@ -40,9 +34,6 @@
     <t>18956225230</t>
   </si>
   <si>
-    <t>个人账户</t>
-  </si>
-  <si>
     <t>测试</t>
   </si>
 </sst>
@@ -51,9 +42,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -66,13 +57,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -80,9 +64,24 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -96,6 +95,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -127,7 +134,60 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -135,75 +195,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,19 +215,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -248,19 +287,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -272,13 +347,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -291,114 +390,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,8 +406,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -430,11 +421,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -454,13 +462,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -480,32 +492,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,148 +505,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -985,20 +976,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="4" width="33.625" customWidth="1"/>
-    <col min="5" max="5" width="20.6785714285714" customWidth="1"/>
-    <col min="6" max="6" width="17.5535714285714" customWidth="1"/>
+    <col min="2" max="2" width="33.625" customWidth="1"/>
+    <col min="3" max="3" width="20.6785714285714" customWidth="1"/>
+    <col min="4" max="4" width="17.5535714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1011,31 +1002,19 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2">
-        <v>123</v>
-      </c>
-      <c r="E2">
+      <c r="C2">
         <v>100</v>
       </c>
-      <c r="F2" t="s">
-        <v>9</v>
+      <c r="D2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
